--- a/Question_Set2/Software skills/MariaDB (Dev).xlsx
+++ b/Question_Set2/Software skills/MariaDB (Dev).xlsx
@@ -16,23 +16,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You are developing a database of child authors using the table structure in the below code block. You need to restrict author entries to those under 10 years of age.  Which of the following statements will you write to do so? CREATE TABLE Author\n(\n  AuthorID INT NOT NULL PRIMARY KEY,  \n  AuthorName VARCHAR(50) NOT NULL,\n  AuthorAge INT\n)', 'ques_type': 2, 'options': ['ALTER TABLE Author CONSTRAINT ck_age CHECK(AuthorAge &amp;gt= 10)', 'ALTER TABLE Author ADD CONSTRAINT ck_age (AuthorAge &amp;gt= 10)', 'ALTER TABLE Author ADD ck_age CHECK(AuthorAge &amp;gt= 10)', 'ALTER TABLE Author ADD CONSTRAINT ck_age CHECK(AuthorAge &amp;gt= 10)'], 'score': 'ALTER TABLE Author ADD CONSTRAINT ck_age CHECK(AuthorAge &amp;gt= 10)'}, {'title': 'You are working on a database of authors. Your manager asks you to remove authors who have not written any book. The below code blocks contain the table structures for authors and books. Which of the following SQL queries should you use to delete authors who have not written books? Author Table Structure \nCREATE TABLE Author\n(\n  AuthorID INT NOT NULL PRIMARY KEY,  \n  AuthorName VARCHAR(50) NOT NULL,\n  AuthorAge INT\n)\n\nBook Table Structure\nCREATE TABLE Book\n(\n   BookID INT NOT NULL PRIMARY KEY,\n   BookTitle VARCHAR(50),\n   AuthorID INT REFERENCES Author(AuthorID)\n)', 'ques_type': 2, 'options': ['DELETE FROM Author WHERE NOT EXISTS (SELECT AuthorID FROM Book )', 'DELETE FROM Author WHERE AuthorID NOT IN (SELECT AuthorID FROM Book )', 'REMOVE FROM Author WHERE AuthorID NOT IN (SELECT AuthorID FROM Book )', 'DELETE FROM Author WHERE EXISTS (SELECT AuthorID FROM Book WHERE Author.AuthorID =AuthorID )'], 'score': 'DELETE FROM Author WHERE AuthorID NOT IN (SELECT AuthorID FROM Book )'}, {'title': 'You want to ensure that errors will not cause your code to break during execution. You have applied error handling as DECLARE EXIT HANDLER FOR SQLEXCEPTION. You want to ensure error details are displayed if an error does occur. Which of the following will get error details as text?', 'ques_type': 2, 'options': ['GET DIAGNOSTICS CONDITION 1 @text = MESSAGE_TEXT', ' @text = MESSAGE_TEXT', 'GET DIAGNOSTICS CONDITION MESSAGE_TEXT', 'SELECT @text = MESSAGE_TEXT'], 'score': 'GET DIAGNOSTICS CONDITION 1 @text = MESSAGE_TEXT'}, {'title': 'True or false: Using an “exists” clause rather than an “in” clause will usually improve performance in SQL queries.', 'ques_type': 11, 'options': ['true', 'false'], 'score': 'True'}]</t>
+    <t>questions = [
+    {
+        "title": "You are developing a database of child authors using the table structure in the below code block. You need to restrict author entries to those under 10 years of age.  Which of the following statements will you write to do so? CREATE TABLE Author\n(\n  AuthorID INT NOT NULL PRIMARY KEY,  \n  AuthorName VARCHAR(50) NOT NULL,\n  AuthorAge INT\n)",
+        "ques_type": 2,
+        "options": [
+            "ALTER TABLE Author CONSTRAINT ck_age CHECK(AuthorAge &amp;gt= 10)",
+            "ALTER TABLE Author ADD CONSTRAINT ck_age (AuthorAge &amp;gt= 10)",
+            "ALTER TABLE Author ADD ck_age CHECK(AuthorAge &amp;gt= 10)",
+            "ALTER TABLE Author ADD CONSTRAINT ck_age CHECK(AuthorAge &amp;gt= 10)"
+        ],
+        "score": "ALTER TABLE Author ADD CONSTRAINT ck_age CHECK(AuthorAge &amp;gt= 10)"
+    },
+    {
+        "title": "You are working on a database of authors. Your manager asks you to remove authors who have not written any book. The below code blocks contain the table structures for authors and books. Which of the following SQL queries should you use to delete authors who have not written books? Author Table Structure \nCREATE TABLE Author\n(\n  AuthorID INT NOT NULL PRIMARY KEY,  \n  AuthorName VARCHAR(50) NOT NULL,\n  AuthorAge INT\n)\n\nBook Table Structure\nCREATE TABLE Book\n(\n   BookID INT NOT NULL PRIMARY KEY,\n   BookTitle VARCHAR(50),\n   AuthorID INT REFERENCES Author(AuthorID)\n)",
+        "ques_type": 2,
+        "options": [
+            "DELETE FROM Author WHERE NOT EXISTS (SELECT AuthorID FROM Book )",
+            "DELETE FROM Author WHERE AuthorID NOT IN (SELECT AuthorID FROM Book )",
+            "REMOVE FROM Author WHERE AuthorID NOT IN (SELECT AuthorID FROM Book )",
+            "DELETE FROM Author WHERE EXISTS (SELECT AuthorID FROM Book WHERE Author.AuthorID =AuthorID )"
+        ],
+        "score": "DELETE FROM Author WHERE AuthorID NOT IN (SELECT AuthorID FROM Book )"
+    },
+    {
+        "title": "You want to ensure that errors will not cause your code to break during execution. You have applied error handling as DECLARE EXIT HANDLER FOR SQLEXCEPTION. You want to ensure error details are displayed if an error does occur. Which of the following will get error details as text?",
+        "ques_type": 2,
+        "options": [
+            "GET DIAGNOSTICS CONDITION 1 @text = MESSAGE_TEXT",
+            " @text = MESSAGE_TEXT",
+            "GET DIAGNOSTICS CONDITION MESSAGE_TEXT",
+            "SELECT @text = MESSAGE_TEXT"
+        ],
+        "score": "GET DIAGNOSTICS CONDITION 1 @text = MESSAGE_TEXT"
+    },
+    {
+        "title": "True or false: Using an \u201cexists\u201d clause rather than an \u201cin\u201d clause will usually improve performance in SQL queries.",
+        "ques_type": 11,
+        "options": [
+            "true",
+            "false"
+        ],
+        "score": "True"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +91,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +391,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
